--- a/Consolidados/tabla_026_migra_Consolidado.xlsx
+++ b/Consolidados/tabla_026_migra_Consolidado.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\Consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002973AB-2901-4BDE-B38B-E3FA06DAFB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE13B70-85E2-45D8-A3D7-821E1E8BD092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_026_migra_2013" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2619,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3462"/>
+  <dimension ref="A1:L3462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2639,7 @@
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>283</v>
       </c>
@@ -2654,7 +2662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2685,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2700,7 +2708,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2723,7 +2731,7 @@
         <v>8314</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +2754,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2769,7 +2777,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +2800,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2860,8 +2868,12 @@
       <c r="G10">
         <v>1107</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f>156+26</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2930,7 +2942,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
